--- a/smartclassonlinesel/FlipLearn/Results/snapshots/Teacher_Execution_Results.xlsx
+++ b/smartclassonlinesel/FlipLearn/Results/snapshots/Teacher_Execution_Results.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
-    <sheet name="Result_Sheet" r:id="rId3" sheetId="1"/>
+    <sheet name="Result_Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="62">
   <si>
     <t>Username</t>
   </si>
@@ -47,7 +49,7 @@
     <t>Teacher</t>
   </si>
   <si>
-    <t>Totaltime: 66 MS</t>
+    <t>Totaltime: 239 MS</t>
   </si>
   <si>
     <t>Fliplearn - Home</t>
@@ -57,83 +59,226 @@
   </si>
   <si>
     <t>Working</t>
+  </si>
+  <si>
+    <t>t_GeethaNanda@smart.com</t>
+  </si>
+  <si>
+    <t>Totaltime: 147 MS</t>
+  </si>
+  <si>
+    <t>Fliplearn</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Totaltime: 86 MS</t>
+  </si>
+  <si>
+    <t>Fliplearn - Tdirectory User</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php/user/Tdirectory</t>
+  </si>
+  <si>
+    <t>Fliplearn - WallPosts</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php/wallPosts</t>
+  </si>
+  <si>
+    <t>Totaltime: 69 MS</t>
+  </si>
+  <si>
+    <t>Fliplearn - Messages</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php/messages</t>
+  </si>
+  <si>
+    <t>Totaltime: 84 MS</t>
+  </si>
+  <si>
+    <t>Fliplearn - PictureGallery</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php/pictureGallery</t>
+  </si>
+  <si>
+    <t>Totaltime: 53 MS</t>
+  </si>
+  <si>
+    <t>Fliplearn - Events</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php/events/index</t>
+  </si>
+  <si>
+    <t>Fliplearn - Announcements</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php/announcements/index</t>
+  </si>
+  <si>
+    <t>Fliplearn - Directory User</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php/user/directory</t>
+  </si>
+  <si>
+    <t>Perform</t>
+  </si>
+  <si>
+    <t>Totaltime: 122 MS</t>
+  </si>
+  <si>
+    <t>Fliplearn - Attendance</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php/attendance/mark</t>
+  </si>
+  <si>
+    <t>Fliplearn - Homework</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php/assignment/index</t>
+  </si>
+  <si>
+    <t>Fliplearn - ActivityReview</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php/ActivityReview/index?school=70&amp;class=5973&amp;section=5974</t>
+  </si>
+  <si>
+    <t>Totaltime: 94 MS</t>
+  </si>
+  <si>
+    <t>Fliplearn - ClassWiseReport Marks</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php/Marks/ClassWiseReport</t>
+  </si>
+  <si>
+    <t>Fliplearn - HealthStatus</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php/healthStatus/index?school=70&amp;class=5973&amp;section=5974</t>
+  </si>
+  <si>
+    <t>Learn</t>
+  </si>
+  <si>
+    <t>Totaltime: 90 MS</t>
+  </si>
+  <si>
+    <t>Fliplearn - View Subject</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php/smartClass/study/4?level_id=1</t>
+  </si>
+  <si>
+    <t>Totaltime: 76 MS</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php/subject/4?level_id=1&amp;sid=5974</t>
+  </si>
+  <si>
+    <t>Fliplearn - smartclass - Mathematics</t>
+  </si>
+  <si>
+    <t>Totaltime: 78 MS</t>
+  </si>
+  <si>
+    <t>Fliplearn - Mathguru</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php/mathguru/index?level_id=6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
       <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
       <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
       <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
       <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
       <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
       <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
       <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
       <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
       <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
       <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="13"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -150,99 +295,847 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.13671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.93359375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.63671875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.26953125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.13671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.00390625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.05078125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.65625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="7.91015625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="15.578125" collapsed="true"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="89.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="6">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="7">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="8">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="9">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="10">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A15" r:id="rId1"/>
+    <hyperlink ref="A16" r:id="rId2"/>
+    <hyperlink ref="H16" r:id="rId3"/>
+    <hyperlink ref="H17" r:id="rId4"/>
+    <hyperlink ref="H18" r:id="rId5"/>
+    <hyperlink ref="A14" r:id="rId6"/>
+    <hyperlink ref="A17" r:id="rId7"/>
+    <hyperlink ref="A18" r:id="rId8"/>
+    <hyperlink ref="H2" r:id="rId9"/>
+    <hyperlink ref="H3" r:id="rId10"/>
+    <hyperlink ref="H4" r:id="rId11"/>
+    <hyperlink ref="H5" r:id="rId12"/>
+    <hyperlink ref="H6" r:id="rId13"/>
+    <hyperlink ref="H7" r:id="rId14"/>
+    <hyperlink ref="H8" r:id="rId15"/>
+    <hyperlink ref="H9" r:id="rId16"/>
+    <hyperlink ref="H10" r:id="rId17"/>
+    <hyperlink ref="H11" r:id="rId18"/>
+    <hyperlink ref="H12" r:id="rId19"/>
+    <hyperlink ref="H13" r:id="rId20"/>
+    <hyperlink ref="H14" r:id="rId21"/>
+    <hyperlink ref="H15" r:id="rId22"/>
+    <hyperlink ref="A3" r:id="rId23"/>
+    <hyperlink ref="A4" r:id="rId24"/>
+    <hyperlink ref="A5" r:id="rId25"/>
+    <hyperlink ref="A6" r:id="rId26"/>
+    <hyperlink ref="A7" r:id="rId27"/>
+    <hyperlink ref="A8" r:id="rId28"/>
+    <hyperlink ref="A9" r:id="rId29"/>
+    <hyperlink ref="A10" r:id="rId30"/>
+    <hyperlink ref="A11" r:id="rId31"/>
+    <hyperlink ref="A12" r:id="rId32"/>
+    <hyperlink ref="A13" r:id="rId33"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>